--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H2">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I2">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J2">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.502995666666665</v>
+        <v>7.021661333333333</v>
       </c>
       <c r="N2">
-        <v>25.508987</v>
+        <v>21.064984</v>
       </c>
       <c r="O2">
-        <v>0.7300889802301167</v>
+        <v>0.5944820341692109</v>
       </c>
       <c r="P2">
-        <v>0.7300889802301168</v>
+        <v>0.5944820341692109</v>
       </c>
       <c r="Q2">
-        <v>618.9612476759654</v>
+        <v>255.5976030336204</v>
       </c>
       <c r="R2">
-        <v>5570.651229083689</v>
+        <v>2300.378427302584</v>
       </c>
       <c r="S2">
-        <v>0.2065233074562355</v>
+        <v>0.1127992341537431</v>
       </c>
       <c r="T2">
-        <v>0.2065233074562355</v>
+        <v>0.1127992341537431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H3">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I3">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J3">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.222407</v>
       </c>
       <c r="O3">
-        <v>0.09222803871107818</v>
+        <v>0.09094063723386185</v>
       </c>
       <c r="P3">
-        <v>0.09222803871107819</v>
+        <v>0.09094063723386187</v>
       </c>
       <c r="Q3">
-        <v>78.18989665249211</v>
+        <v>39.09993500107855</v>
       </c>
       <c r="R3">
-        <v>703.709069872429</v>
+        <v>351.899415009707</v>
       </c>
       <c r="S3">
-        <v>0.02608892903548564</v>
+        <v>0.0172554150400333</v>
       </c>
       <c r="T3">
-        <v>0.02608892903548564</v>
+        <v>0.01725541504003331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.79331566666667</v>
+        <v>36.40130033333333</v>
       </c>
       <c r="H4">
-        <v>218.379947</v>
+        <v>109.203901</v>
       </c>
       <c r="I4">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="J4">
-        <v>0.2828741606141507</v>
+        <v>0.1897437225523226</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.069388333333333</v>
+        <v>3.715596666666666</v>
       </c>
       <c r="N4">
-        <v>6.208165</v>
+        <v>11.14679</v>
       </c>
       <c r="O4">
-        <v>0.177682981058805</v>
+        <v>0.3145773285969274</v>
       </c>
       <c r="P4">
-        <v>0.177682981058805</v>
+        <v>0.3145773285969274</v>
       </c>
       <c r="Q4">
-        <v>150.6376381852506</v>
+        <v>135.2525501808655</v>
       </c>
       <c r="R4">
-        <v>1355.738743667255</v>
+        <v>1217.27295162779</v>
       </c>
       <c r="S4">
-        <v>0.0502619241224295</v>
+        <v>0.0596890733585462</v>
       </c>
       <c r="T4">
-        <v>0.0502619241224295</v>
+        <v>0.05968907335854621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>351.510254</v>
       </c>
       <c r="I5">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J5">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.502995666666665</v>
+        <v>7.021661333333333</v>
       </c>
       <c r="N5">
-        <v>25.508987</v>
+        <v>21.064984</v>
       </c>
       <c r="O5">
-        <v>0.7300889802301167</v>
+        <v>0.5944820341692109</v>
       </c>
       <c r="P5">
-        <v>0.7300889802301168</v>
+        <v>0.5944820341692109</v>
       </c>
       <c r="Q5">
-        <v>996.2967221836328</v>
+        <v>822.7286529273264</v>
       </c>
       <c r="R5">
-        <v>8966.670499652697</v>
+        <v>7404.557876345936</v>
       </c>
       <c r="S5">
-        <v>0.3324254871298298</v>
+        <v>0.3630830683272727</v>
       </c>
       <c r="T5">
-        <v>0.3324254871298299</v>
+        <v>0.3630830683272727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>351.510254</v>
       </c>
       <c r="I6">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J6">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.222407</v>
       </c>
       <c r="O6">
-        <v>0.09222803871107818</v>
+        <v>0.09094063723386185</v>
       </c>
       <c r="P6">
-        <v>0.09222803871107819</v>
+        <v>0.09094063723386187</v>
       </c>
       <c r="Q6">
         <v>125.8565670068198</v>
@@ -818,10 +818,10 @@
         <v>1132.709103061378</v>
       </c>
       <c r="S6">
-        <v>0.04199344398527365</v>
+        <v>0.05554247850172978</v>
       </c>
       <c r="T6">
-        <v>0.04199344398527366</v>
+        <v>0.05554247850172978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>351.510254</v>
       </c>
       <c r="I7">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="J7">
-        <v>0.4553218801152877</v>
+        <v>0.6107553255746098</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.069388333333333</v>
+        <v>3.715596666666666</v>
       </c>
       <c r="N7">
-        <v>6.208165</v>
+        <v>11.14679</v>
       </c>
       <c r="O7">
-        <v>0.177682981058805</v>
+        <v>0.3145773285969274</v>
       </c>
       <c r="P7">
-        <v>0.177682981058805</v>
+        <v>0.3145773285969274</v>
       </c>
       <c r="Q7">
-        <v>242.4704062248789</v>
+        <v>435.3567760205178</v>
       </c>
       <c r="R7">
-        <v>2182.23365602391</v>
+        <v>3918.21098418466</v>
       </c>
       <c r="S7">
-        <v>0.08090294900018415</v>
+        <v>0.1921297787456074</v>
       </c>
       <c r="T7">
-        <v>0.08090294900018416</v>
+        <v>0.1921297787456074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H8">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I8">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J8">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.502995666666665</v>
+        <v>7.021661333333333</v>
       </c>
       <c r="N8">
-        <v>25.508987</v>
+        <v>21.064984</v>
       </c>
       <c r="O8">
-        <v>0.7300889802301167</v>
+        <v>0.5944820341692109</v>
       </c>
       <c r="P8">
-        <v>0.7300889802301168</v>
+        <v>0.5944820341692109</v>
       </c>
       <c r="Q8">
-        <v>572.8572200613654</v>
+        <v>268.7412495958622</v>
       </c>
       <c r="R8">
-        <v>5155.714980552289</v>
+        <v>2418.67124636276</v>
       </c>
       <c r="S8">
-        <v>0.1911401856440514</v>
+        <v>0.1185997316881951</v>
       </c>
       <c r="T8">
-        <v>0.1911401856440515</v>
+        <v>0.1185997316881951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H9">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I9">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J9">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.222407</v>
       </c>
       <c r="O9">
-        <v>0.09222803871107818</v>
+        <v>0.09094063723386185</v>
       </c>
       <c r="P9">
-        <v>0.09222803871107819</v>
+        <v>0.09094063723386187</v>
       </c>
       <c r="Q9">
-        <v>72.36583388929888</v>
+        <v>41.11057876362277</v>
       </c>
       <c r="R9">
-        <v>651.2925050036901</v>
+        <v>369.995208872605</v>
       </c>
       <c r="S9">
-        <v>0.02414566569031891</v>
+        <v>0.01814274369209877</v>
       </c>
       <c r="T9">
-        <v>0.02414566569031891</v>
+        <v>0.01814274369209878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.37122333333333</v>
+        <v>38.27317166666666</v>
       </c>
       <c r="H10">
-        <v>202.11367</v>
+        <v>114.819515</v>
       </c>
       <c r="I10">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="J10">
-        <v>0.2618039592705618</v>
+        <v>0.1995009518730676</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.069388333333333</v>
+        <v>3.715596666666666</v>
       </c>
       <c r="N10">
-        <v>6.208165</v>
+        <v>11.14679</v>
       </c>
       <c r="O10">
-        <v>0.177682981058805</v>
+        <v>0.3145773285969274</v>
       </c>
       <c r="P10">
-        <v>0.177682981058805</v>
+        <v>0.3145773285969274</v>
       </c>
       <c r="Q10">
-        <v>139.4172235683944</v>
+        <v>142.2076690674278</v>
       </c>
       <c r="R10">
-        <v>1254.75501211555</v>
+        <v>1279.86902160685</v>
       </c>
       <c r="S10">
-        <v>0.04651810793619138</v>
+        <v>0.06275847649277379</v>
       </c>
       <c r="T10">
-        <v>0.04651810793619139</v>
+        <v>0.06275847649277379</v>
       </c>
     </row>
   </sheetData>
